--- a/biology/Zoologie/Ambystoma_velasci/Ambystoma_velasci.xlsx
+++ b/biology/Zoologie/Ambystoma_velasci/Ambystoma_velasci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambystoma velasci est une espèce d'urodèles de la famille des Ambystomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambystoma velasci est une espèce d'urodèles de la famille des Ambystomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre du Nord de l'État de Chihuahua au Sud de l'État de Puebla dans la Sierra Madre occidentale, la Sierra Madre orientale et la cordillère néovolcanique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre du Nord de l'État de Chihuahua au Sud de l'État de Puebla dans la Sierra Madre occidentale, la Sierra Madre orientale et la cordillère néovolcanique.
 Sa présence est incertaine aux États-Unis.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de José María Velasco[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de José María Velasco.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dugès, 1888 : Erpetología del Valle de México. La Naturaleza, México, sér. 2, vol. 1, p. 97-146 (texte intégral).</t>
         </is>
